--- a/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-53,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-46,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>-12,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92,01%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,89</t>
+          <t>-15,68; 4,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 7,65</t>
+          <t>-23,0; 7,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,76</t>
+          <t>-15,57; 13,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 13,07</t>
+          <t>-15,54; 15,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 688,82</t>
+          <t>-3,82; 40,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 131,48</t>
+          <t>-100,0; 271,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,69; 109,43</t>
+          <t>-87,69; 125,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 370,97</t>
+          <t>-80,97; 319,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-74,74; 305,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 635,02</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>137,55%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>139,13%</t>
+          <t>-9,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,28</t>
+          <t>-2,49; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,87</t>
+          <t>-1,64; 8,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,53</t>
+          <t>-6,23; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,4</t>
+          <t>-1,01; 8,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 128,43</t>
+          <t>0,58; 12,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 419,33</t>
+          <t>-71,25; 678,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 126,42</t>
+          <t>-27,76; 338,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 442,86</t>
+          <t>-62,22; 118,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,05; 347,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 355,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,28%</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-37,8%</t>
+          <t>-40,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-45,51%</t>
+          <t>-66,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-78,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,32%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,36</t>
+          <t>-3,09; 2,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,88</t>
+          <t>-5,97; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,53</t>
+          <t>-10,77; 0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 1,24</t>
+          <t>-10,16; -0,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 245,42</t>
+          <t>-3,53; 10,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,46; 251,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 43,83</t>
+          <t>-91,25; 305,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,88; 42,77</t>
+          <t>-92,78; 24,61</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 26,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-70,0; 475,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 93,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 126,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 42,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 144,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-32,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 2,3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 3,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 0,92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 3,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 13,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-57,6; 150,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-47,09; 82,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-62,62; 18,74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-49,85; 81,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 267,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-53,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-46,3%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,91%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>92,01%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.477503780525479</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.188814548724379</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.476658247325691</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.392176115753459</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>12.10396635784814</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5357574143679056</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4674852218172507</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1252275315468091</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1099768223658134</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8346612583733227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 4,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,0; 7,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; 13,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 15,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 40,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 271,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-87,69; 125,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-80,97; 319,14</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-74,74; 305,73</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,21; 635,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.68113575735733</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.77358142214684</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.20161770877959</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.44758040360857</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.201350104760389</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8733589999132847</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8342328402426262</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7730705185176948</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2554843600695928</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.087170597088507</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.616056595591437</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.8968654115196</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.56298443752473</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>37.18107066166304</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.711234951743906</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.385715813463011</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.463835783364004</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.685666161825252</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.847490416423788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>54,01%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,59%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-9,76%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>83,72%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>105,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 5,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 8,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 4,9</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 8,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 12,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-71,25; 678,78</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-27,76; 338,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-62,22; 118,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-27,05; 347,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 355,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.320281519969615</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.596547058105819</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.77434353586463</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.64641880561606</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.369989351675315</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5401145168002409</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7780990343969133</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1091686817059318</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8770943806689229</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.054924318923885</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-40,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-66,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-78,67%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>39,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.485991541223485</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.393082038285978</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.359629313429342</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.9015030821229831</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.5361058538778847</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7125421105701656</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.231560624996712</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6365353402430545</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2686764979413234</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.006540888805325175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 2,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 1,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; 0,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; -0,8</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 10,28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-91,25; 305,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-92,78; 24,61</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 26,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-70,0; 475,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.059577200608701</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.646832897049656</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.551358685287594</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.574468445673041</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.36659452801076</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.78781953003307</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.619695000983637</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.135477608689601</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.625005869007655</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.378376567149117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2796567921661563</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.000588108924089</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.696719271006999</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.966063885527697</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.8919422041949634</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1941001384283325</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5865666289258654</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6995885077738254</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7529021633748861</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1896083400190512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.093387560977553</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.00076746870047</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.75190523028628</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.81466911344603</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.435811677306631</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9455644611362807</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7569542909240012</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.625150756578929</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.28537824786834</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.7999753661744196</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.414585547338274</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>8.265866804850388</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.124270365740574</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1076600434637841</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.5328016552354925</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.932767154965663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,71%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-32,53%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 2,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 0,92</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 3,45</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 13,64</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-57,6; 150,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-47,09; 82,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-62,62; 18,74</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-49,85; 81,05</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 267,77</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.05987540497257825</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6991159468460024</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.794543401031567</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2485660301518866</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.720451896463612</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.02083657214332956</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1096101452627782</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.34365104053205</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.0402220133496146</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8168068040848496</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.289442825004688</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.750752494892782</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.263457909806292</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.085933166579212</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.9390431649983325</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5759886060558291</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5265898290028941</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6537157095235839</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.504182477167827</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.06076523737553505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.30313439916538</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.994910171845702</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6680021037086357</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.540595625359385</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.15097618135125</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.500565551036785</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7555742230058474</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1282737472441535</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7985267495254056</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.459102844461191</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
